--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -11,11 +11,10 @@
     <s:sheet name="Classification" sheetId="2" r:id="rId2"/>
     <s:sheet name="Documents" sheetId="3" r:id="rId3"/>
     <s:sheet name="Event" sheetId="4" r:id="rId4"/>
-    <s:sheet name="Gazeteer" sheetId="5" r:id="rId5"/>
-    <s:sheet name="GrantProgramme" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Location" sheetId="7" r:id="rId7"/>
-    <s:sheet name="Organization" sheetId="8" r:id="rId8"/>
-    <s:sheet name="Transaction" sheetId="9" r:id="rId9"/>
+    <s:sheet name="GrantProgramme" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Location" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Organization" sheetId="7" r:id="rId7"/>
+    <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Identifier</t>
   </si>
@@ -94,9 +93,6 @@
     <t>Beneficiary Location:Country Code</t>
   </si>
   <si>
-    <t>Beneficiary Location:Lat-Long</t>
-  </si>
-  <si>
     <t>Funding Org:Identifier</t>
   </si>
   <si>
@@ -133,16 +129,19 @@
     <t>Activity/id:classifications</t>
   </si>
   <si>
-    <t>Funding Type</t>
-  </si>
-  <si>
-    <t>Classifications</t>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
   <si>
     <t>Activity/id:relatedDocument</t>
   </si>
   <si>
-    <t>Related Document</t>
+    <t>Document Type</t>
   </si>
   <si>
     <t>Activity/id:plannedDates</t>
@@ -154,42 +153,18 @@
     <t>Activity/id:actualDates</t>
   </si>
   <si>
-    <t>Planned Dates</t>
-  </si>
-  <si>
-    <t>Award Date</t>
-  </si>
-  <si>
-    <t>Actual Dates</t>
-  </si>
-  <si>
-    <t>Activity/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/recipientOrganization[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/recipientOrganization[]/location[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/beneficiaryLocation[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/fundingOrganization[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Activity/fundingOrganization[]/location[]/id:gazeteerEntry</t>
-  </si>
-  <si>
-    <t>Gazeteer Entry</t>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Duration (months)</t>
   </si>
   <si>
     <t>Activity/id:grantProgramme</t>
   </si>
   <si>
-    <t>Grant Programme</t>
-  </si>
-  <si>
     <t>Activity/id:location</t>
   </si>
   <si>
@@ -202,10 +177,22 @@
     <t>Activity/fundingOrganization[]/id:location</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Beneficiary Location</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Geographic Code</t>
+  </si>
+  <si>
+    <t>Geographic Code Type</t>
   </si>
   <si>
     <t>Activity/id:recipientOrganization</t>
@@ -214,10 +201,40 @@
     <t>Activity/id:fundingOrganization</t>
   </si>
   <si>
-    <t>Recipient Org</t>
-  </si>
-  <si>
-    <t>Funding Org</t>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Charity Number</t>
+  </si>
+  <si>
+    <t>Company Number</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Alternate Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Organisation Type</t>
   </si>
   <si>
     <t>Activity/id:applicationTransaction</t>
@@ -229,13 +246,19 @@
     <t>Activity/id:disbursementTransaction</t>
   </si>
   <si>
-    <t>Amount applied for</t>
-  </si>
-  <si>
-    <t>Amount awarded</t>
-  </si>
-  <si>
-    <t>Amount paid out</t>
+    <t>Transaction date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value date</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Recipient</t>
   </si>
 </sst>
 </file>
@@ -571,7 +594,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +602,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,9 +698,6 @@
       </c>
       <c r="AF1" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +710,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,21 +718,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +757,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,15 +765,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -750,6 +797,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -764,25 +861,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -790,12 +887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,30 +900,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>51</v>
       </c>
       <c r="H1" t="s">
         <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -834,12 +949,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,15 +962,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -863,12 +1029,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,103 +1042,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Identifier</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Beneficiary Location:Country Code</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Latitude</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Longitude</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Geographic Code</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Geographic Code Type</t>
   </si>
   <si>
     <t>Funding Org:Identifier</t>
@@ -594,7 +606,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +614,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,6 +710,18 @@
       </c>
       <c r="AF1" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -720,19 +744,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -741,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -767,10 +791,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -785,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -811,34 +835,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -861,13 +885,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -876,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -902,46 +926,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -964,64 +988,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
       </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1044,43 +1068,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Identifier</t>
   </si>
@@ -33,135 +33,135 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Amount Applied For</t>
+  </si>
+  <si>
+    <t>Amount Awarded</t>
+  </si>
+  <si>
+    <t>Amount Disbursed</t>
+  </si>
+  <si>
+    <t>Award Date</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Planned Dates:Start Date</t>
+  </si>
+  <si>
+    <t>Planned Dates:End Date</t>
+  </si>
+  <si>
+    <t>Planned Dates:Duration (months)</t>
+  </si>
+  <si>
+    <t>Recipient Org:Identifier</t>
+  </si>
+  <si>
+    <t>Recipient Org:Name</t>
+  </si>
+  <si>
+    <t>Recipient Org:Charity Number</t>
+  </si>
+  <si>
+    <t>Recipient Org:Company Number</t>
+  </si>
+  <si>
+    <t>Recipient Org:Street Address</t>
+  </si>
+  <si>
+    <t>Recipient Org:City</t>
+  </si>
+  <si>
+    <t>Recipient Org:Postal Code</t>
+  </si>
+  <si>
+    <t>Recipient Org:Description</t>
+  </si>
+  <si>
+    <t>Recipient Org:Web Address</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Name</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Country Code</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Latitude</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Longitude</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Geographic Code</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Geographic Code Type</t>
+  </si>
+  <si>
+    <t>Funding Org:Identifier</t>
+  </si>
+  <si>
+    <t>Funding Org:Name</t>
+  </si>
+  <si>
+    <t>Funding Org:Department</t>
+  </si>
+  <si>
+    <t>Grant Programme:Code</t>
+  </si>
+  <si>
+    <t>Grant Programme:Title</t>
+  </si>
+  <si>
+    <t>Grant Programme:URL</t>
+  </si>
+  <si>
+    <t>From an open call?</t>
+  </si>
+  <si>
+    <t>Related Activity</t>
+  </si>
+  <si>
+    <t>Last modified</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>ocid</t>
+  </si>
+  <si>
+    <t>Activity/id:fundingType</t>
+  </si>
+  <si>
+    <t>Activity/id:classifications</t>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Activity/id:relatedDocument</t>
+  </si>
+  <si>
     <t>Web Address</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Planned Dates:Start Date</t>
-  </si>
-  <si>
-    <t>Planned Dates:End Date</t>
-  </si>
-  <si>
-    <t>Planned Dates:Duration (months)</t>
-  </si>
-  <si>
-    <t>Amount Applied For</t>
-  </si>
-  <si>
-    <t>Amount Awarded</t>
-  </si>
-  <si>
-    <t>Amount Disbursed</t>
-  </si>
-  <si>
-    <t>Award Date:Start Date</t>
-  </si>
-  <si>
-    <t>Recipient Org:Identifier</t>
-  </si>
-  <si>
-    <t>Recipient Org:Name</t>
-  </si>
-  <si>
-    <t>Recipient Org:Charity Number</t>
-  </si>
-  <si>
-    <t>Recipient Org:Company Number</t>
-  </si>
-  <si>
-    <t>Recipient Org:Street Address</t>
-  </si>
-  <si>
-    <t>Recipient Org:City</t>
-  </si>
-  <si>
-    <t>Recipient Org:Postal Code</t>
-  </si>
-  <si>
-    <t>Recipient Org:Description</t>
-  </si>
-  <si>
-    <t>Recipient Org:Web Address</t>
-  </si>
-  <si>
-    <t>Beneficiary Location:Name</t>
-  </si>
-  <si>
-    <t>Beneficiary Location:Country Code</t>
-  </si>
-  <si>
-    <t>Beneficiary Location:Latitude</t>
-  </si>
-  <si>
-    <t>Beneficiary Location:Longitude</t>
-  </si>
-  <si>
-    <t>Beneficiary Location:Geographic Code</t>
-  </si>
-  <si>
-    <t>Beneficiary Location:Geographic Code Type</t>
-  </si>
-  <si>
-    <t>Funding Org:Identifier</t>
-  </si>
-  <si>
-    <t>Funding Org:Name</t>
-  </si>
-  <si>
-    <t>From an open call?</t>
-  </si>
-  <si>
-    <t>Grant Programme:Code</t>
-  </si>
-  <si>
-    <t>Grant Programme:Title</t>
-  </si>
-  <si>
-    <t>Grant Programme:URL</t>
-  </si>
-  <si>
-    <t>Related Activity</t>
-  </si>
-  <si>
-    <t>Last modified</t>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>ocid</t>
-  </si>
-  <si>
-    <t>Activity/id:fundingType</t>
-  </si>
-  <si>
-    <t>Activity/id:classifications</t>
-  </si>
-  <si>
-    <t>Vocabulary</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Activity/id:relatedDocument</t>
-  </si>
-  <si>
     <t>Document Type</t>
   </si>
   <si>
     <t>Activity/id:plannedDates</t>
   </si>
   <si>
-    <t>Activity/id:awardDate</t>
-  </si>
-  <si>
     <t>Activity/id:actualDates</t>
   </si>
   <si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Activity/id:fundingOrganization</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
   <si>
     <t>Contact Name</t>
@@ -606,7 +609,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,7 +617,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,6 +725,9 @@
       </c>
       <c r="AJ1" t="s">
         <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -744,19 +750,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -765,10 +771,10 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +797,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -803,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +831,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,36 +839,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -885,13 +888,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -900,10 +903,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +929,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
@@ -965,7 +968,7 @@
         <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +981,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,9 +989,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -1036,16 +1039,19 @@
         <v>73</v>
       </c>
       <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
-        <v>74</v>
-      </c>
       <c r="S1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1068,43 +1074,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Identifier</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Data Source</t>
-  </si>
-  <si>
-    <t>ocid</t>
   </si>
   <si>
     <t>Activity/id:fundingType</t>
@@ -740,7 +737,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -762,18 +759,15 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -783,6 +777,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -797,25 +832,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>35</v>
@@ -826,12 +861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,32 +874,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -873,193 +899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +914,146 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
@@ -1083,33 +1062,30 @@
         <v>77</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>80</v>
       </c>
       <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
       </c>
       <c r="K1" t="s">
         <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -7,7 +7,7 @@
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Activity" sheetId="1" r:id="rId1"/>
+    <s:sheet name="grants" sheetId="1" r:id="rId1"/>
     <s:sheet name="Classification" sheetId="2" r:id="rId2"/>
     <s:sheet name="Documents" sheetId="3" r:id="rId3"/>
     <s:sheet name="Event" sheetId="4" r:id="rId4"/>
@@ -135,10 +135,10 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Activity/id:fundingType</t>
-  </si>
-  <si>
-    <t>Activity/id:classifications</t>
+    <t>grants/id:fundingType</t>
+  </si>
+  <si>
+    <t>grants/id:classifications</t>
   </si>
   <si>
     <t>Vocabulary</t>
@@ -147,7 +147,7 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Activity/id:relatedDocument</t>
+    <t>grants/id:relatedDocument</t>
   </si>
   <si>
     <t>Web Address</t>
@@ -156,10 +156,10 @@
     <t>Document Type</t>
   </si>
   <si>
-    <t>Activity/id:plannedDates</t>
-  </si>
-  <si>
-    <t>Activity/id:actualDates</t>
+    <t>grants/id:plannedDates</t>
+  </si>
+  <si>
+    <t>grants/id:actualDates</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -171,19 +171,19 @@
     <t>Duration (months)</t>
   </si>
   <si>
-    <t>Activity/id:grantProgramme</t>
-  </si>
-  <si>
-    <t>Activity/id:location</t>
-  </si>
-  <si>
-    <t>Activity/recipientOrganization[]/id:location</t>
-  </si>
-  <si>
-    <t>Activity/id:beneficiaryLocation</t>
-  </si>
-  <si>
-    <t>Activity/fundingOrganization[]/id:location</t>
+    <t>grants/id:grantProgramme</t>
+  </si>
+  <si>
+    <t>grants/id:location</t>
+  </si>
+  <si>
+    <t>grants/recipientOrganization[]/id:location</t>
+  </si>
+  <si>
+    <t>grants/id:beneficiaryLocation</t>
+  </si>
+  <si>
+    <t>grants/fundingOrganization[]/id:location</t>
   </si>
   <si>
     <t>Name</t>
@@ -204,10 +204,10 @@
     <t>Geographic Code Type</t>
   </si>
   <si>
-    <t>Activity/id:recipientOrganization</t>
-  </si>
-  <si>
-    <t>Activity/id:fundingOrganization</t>
+    <t>grants/id:recipientOrganization</t>
+  </si>
+  <si>
+    <t>grants/id:fundingOrganization</t>
   </si>
   <si>
     <t>Department</t>
@@ -249,13 +249,13 @@
     <t>Organisation Type</t>
   </si>
   <si>
-    <t>Activity/id:applicationTransaction</t>
-  </si>
-  <si>
-    <t>Activity/id:commitmentTransaction</t>
-  </si>
-  <si>
-    <t>Activity/id:disbursementTransaction</t>
+    <t>grants/id:applicationTransaction</t>
+  </si>
+  <si>
+    <t>grants/id:commitmentTransaction</t>
+  </si>
+  <si>
+    <t>grants/id:disbursementTransaction</t>
   </si>
   <si>
     <t>Transaction date</t>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -614,126 +614,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" t="s">
+    <row spans="1:37" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c t="s" r="U1">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c t="s" r="V1">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c t="s" r="W1">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c t="s" r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c t="s" r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c t="s" r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c t="s" r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c t="s" r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c t="s" r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c t="s" r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c t="s" r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c t="s" r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c t="s" r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c t="s" r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c t="s" r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c t="s" r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c t="s" r="AK1">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -745,39 +745,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -789,36 +789,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -830,39 +830,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -874,33 +874,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row spans="1:6" r="1">
+      <c t="s" r="A1">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -912,54 +912,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row spans="1:13" r="1">
+      <c t="s" r="A1">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -971,75 +971,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row spans="1:20" r="1">
+      <c t="s" r="A1">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1051,45 +1051,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row spans="1:12" r="1">
+      <c t="s" r="A1">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" footer="0.5" top="1" bottom="1" header="0.5" left="0.75"/>
+  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -614,121 +614,121 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:37" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="U1">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="V1">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="W1">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="X1">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="Y1">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="Z1">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="AA1">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="AB1">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="AC1">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AD1">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AE1">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AF1">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="AG1">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="AH1">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="AI1">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="AJ1">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="AK1">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -745,34 +745,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -789,31 +789,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -830,34 +830,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -874,28 +874,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:6" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -912,49 +912,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:13" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -971,70 +971,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:20" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
 
@@ -1051,45 +1051,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:12" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" header="0.5" top="1" footer="0.5" right="0.75" bottom="1"/>
+  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -614,126 +614,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" t="s">
+    <row spans="1:37" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c t="s" r="U1">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c t="s" r="V1">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c t="s" r="W1">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c t="s" r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c t="s" r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c t="s" r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c t="s" r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c t="s" r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c t="s" r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c t="s" r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c t="s" r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c t="s" r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c t="s" r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c t="s" r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c t="s" r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c t="s" r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c t="s" r="AK1">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -745,39 +745,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -789,36 +789,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -830,39 +830,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -874,33 +874,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row spans="1:6" r="1">
+      <c t="s" r="A1">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -912,54 +912,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row spans="1:13" r="1">
+      <c t="s" r="A1">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -971,75 +971,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row spans="1:20" r="1">
+      <c t="s" r="A1">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1051,45 +1051,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row spans="1:12" r="1">
+      <c t="s" r="A1">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" footer="0.5" top="1" bottom="1" left="0.75" right="0.75"/>
+  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -615,120 +615,120 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:37" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="U1">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="V1">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="W1">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="X1">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="Y1">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="Z1">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="AA1">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="AB1">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="AC1">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AD1">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AE1">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AF1">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="AG1">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="AH1">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="AI1">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="AJ1">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="AK1">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -746,33 +746,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:8" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -790,30 +790,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:7" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -831,33 +831,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:8" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -875,27 +875,27 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:6" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -913,48 +913,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:13" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -972,69 +972,69 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:20" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
 
@@ -1052,44 +1052,44 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:12" r="1">
-      <c t="s" r="A1">
+      <c r="A1" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" footer="0.5" left="0.75" bottom="1" right="0.75" header="0.5"/>
+  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -614,7 +614,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:37" r="1">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -745,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -789,7 +789,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:7" r="1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -830,7 +830,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -874,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:6" r="1">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -895,7 +895,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -912,7 +912,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:13" r="1">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -971,7 +971,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:20" r="1">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
 
@@ -1051,7 +1051,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:12" r="1">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1090,6 +1090,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" top="1" right="0.75" left="0.75" footer="0.5" bottom="1"/>
+  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -728,7 +728,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -772,7 +772,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -813,7 +813,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -857,7 +857,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -895,7 +895,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -954,7 +954,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -1034,7 +1034,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
 
@@ -1090,6 +1090,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" right="0.75" left="0.75" footer="0.5" top="1" bottom="1"/>
+  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -614,126 +614,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" t="s">
+    <row spans="1:37" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c t="s" r="U1">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c t="s" r="V1">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c t="s" r="W1">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c t="s" r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c t="s" r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c t="s" r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c t="s" r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c t="s" r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c t="s" r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c t="s" r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c t="s" r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c t="s" r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c t="s" r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c t="s" r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c t="s" r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c t="s" r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c t="s" r="AK1">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -745,39 +745,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -789,36 +789,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -830,39 +830,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -874,33 +874,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row spans="1:6" r="1">
+      <c t="s" r="A1">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -912,54 +912,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row spans="1:13" r="1">
+      <c t="s" r="A1">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -971,75 +971,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row spans="1:20" r="1">
+      <c t="s" r="A1">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1051,45 +1051,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row spans="1:12" r="1">
+      <c t="s" r="A1">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins footer="0.5" left="0.75" header="0.5" right="0.75" bottom="1" top="1"/>
+  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -1,10 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:workbookPr/>
   <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
@@ -280,10 +279,10 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -602,10 +601,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -614,129 +613,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:37" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="U1">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="V1">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="W1">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="X1">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="Y1">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="Z1">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="AA1">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="AB1">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="AC1">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AD1">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AE1">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AF1">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="AG1">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="AH1">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="AI1">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="AJ1">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="AK1">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,42 +744,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -789,39 +788,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -830,42 +829,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -874,36 +873,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:6" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -912,57 +911,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:13" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -971,78 +970,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:20" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+  </s:sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1051,45 +1050,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:12" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>75</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins header="0.5" left="0.75" bottom="1" footer="0.5" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -1,9 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
     <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
@@ -279,10 +280,10 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -601,10 +602,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -613,129 +614,129 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" t="s">
+    <row spans="1:37" r="1">
+      <c t="s" r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c t="s" r="U1">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c t="s" r="V1">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c t="s" r="W1">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c t="s" r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c t="s" r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c t="s" r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c t="s" r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c t="s" r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c t="s" r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c t="s" r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c t="s" r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c t="s" r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c t="s" r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c t="s" r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c t="s" r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c t="s" r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c t="s" r="AK1">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -744,42 +745,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -788,39 +789,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -829,42 +830,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -873,36 +874,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row spans="1:6" r="1">
+      <c t="s" r="A1">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -911,57 +912,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row spans="1:13" r="1">
+      <c t="s" r="A1">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -970,78 +971,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row spans="1:20" r="1">
+      <c t="s" r="A1">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c t="s" r="M1">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c t="s" r="N1">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c t="s" r="O1">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c t="s" r="P1">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c t="s" r="Q1">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c t="s" r="R1">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c t="s" r="S1">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c t="s" r="T1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1050,45 +1051,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row spans="1:12" r="1">
+      <c t="s" r="A1">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c t="s" r="G1">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c t="s" r="H1">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c t="s" r="I1">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c t="s" r="J1">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c t="s" r="K1">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c t="s" r="L1">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Identifier</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Recipient Org:City</t>
+  </si>
+  <si>
+    <t>Recipient Org:Country</t>
   </si>
   <si>
     <t>Recipient Org:Postal Code</t>
@@ -606,7 +609,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,7 +617,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:37" r="1">
+    <row spans="1:38" r="1">
       <c t="s" r="A1">
         <v>0</v>
       </c>
@@ -726,9 +729,12 @@
       <c t="s" r="AK1">
         <v>36</v>
       </c>
+      <c t="s" r="AL1">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -747,16 +753,16 @@
   <sheetData>
     <row spans="1:8" r="1">
       <c t="s" r="A1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="B1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="C1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="D1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="E1">
         <v>1</v>
@@ -768,11 +774,11 @@
         <v>8</v>
       </c>
       <c t="s" r="H1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -791,7 +797,7 @@
   <sheetData>
     <row spans="1:7" r="1">
       <c t="s" r="A1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="B1">
         <v>0</v>
@@ -800,20 +806,20 @@
         <v>1</v>
       </c>
       <c t="s" r="D1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="E1">
         <v>2</v>
       </c>
       <c t="s" r="F1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="G1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -832,32 +838,32 @@
   <sheetData>
     <row spans="1:8" r="1">
       <c t="s" r="A1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="B1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="C1">
         <v>1</v>
       </c>
       <c t="s" r="D1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="E1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="F1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="G1">
         <v>2</v>
       </c>
       <c t="s" r="H1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -876,10 +882,10 @@
   <sheetData>
     <row spans="1:6" r="1">
       <c t="s" r="A1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="B1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C1">
         <v>1</v>
@@ -891,11 +897,11 @@
         <v>8</v>
       </c>
       <c t="s" r="F1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -914,47 +920,47 @@
   <sheetData>
     <row spans="1:13" r="1">
       <c t="s" r="A1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="B1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="C1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="D1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="E1">
         <v>0</v>
       </c>
       <c t="s" r="F1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="G1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="H1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="I1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="J1">
         <v>2</v>
       </c>
       <c t="s" r="K1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="L1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="M1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,68 +979,68 @@
   <sheetData>
     <row spans="1:20" r="1">
       <c t="s" r="A1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="B1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="C1">
         <v>0</v>
       </c>
       <c t="s" r="D1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="E1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="G1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="H1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="I1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="J1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="K1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="L1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="M1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="N1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="O1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="P1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q1">
         <v>2</v>
       </c>
       <c t="s" r="R1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="S1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="T1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1053,43 +1059,43 @@
   <sheetData>
     <row spans="1:12" r="1">
       <c t="s" r="A1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="B1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="C1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="D1">
         <v>0</v>
       </c>
       <c t="s" r="E1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F1">
         <v>3</v>
       </c>
       <c t="s" r="G1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="H1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="I1">
         <v>2</v>
       </c>
       <c t="s" r="J1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="K1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="L1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins top="1" right="0.75" header="0.5" left="0.75" bottom="1" footer="0.5"/>
+  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Identifier</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Recipient Org:City</t>
+  </si>
+  <si>
+    <t>Recipient Org:County</t>
   </si>
   <si>
     <t>Recipient Org:Country</t>
@@ -609,7 +612,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,124 +620,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:38" r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="R1">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="S1">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="T1">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="U1">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="V1">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="W1">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="X1">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="Y1">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="Z1">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="AA1">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="AB1">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="AC1">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AD1">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AE1">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AF1">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="AG1">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="AH1">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="AI1">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="AJ1">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="AK1">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="AL1">
+      <c r="AL1" t="s">
         <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -751,34 +757,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c t="s" r="A1">
-        <v>38</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="C1">
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="D1">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="E1">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="G1">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="H1">
-        <v>36</v>
+      <c r="H1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -795,31 +801,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:7" r="1">
-      <c t="s" r="A1">
-        <v>42</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
-        <v>43</v>
-      </c>
-      <c t="s" r="E1">
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="F1">
-        <v>44</v>
-      </c>
-      <c t="s" r="G1">
-        <v>36</v>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -836,34 +842,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c t="s" r="A1">
-        <v>45</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C1">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
-        <v>47</v>
-      </c>
-      <c t="s" r="E1">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="F1">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="G1">
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="H1">
-        <v>36</v>
+      <c r="H1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -880,28 +886,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:6" r="1">
-      <c t="s" r="A1">
-        <v>50</v>
-      </c>
-      <c t="s" r="B1">
-        <v>41</v>
-      </c>
-      <c t="s" r="C1">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F1">
-        <v>36</v>
+      <c r="F1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -918,49 +924,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:13" r="1">
-      <c t="s" r="A1">
-        <v>51</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="C1">
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="D1">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="E1">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="F1">
-        <v>55</v>
-      </c>
-      <c t="s" r="G1">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="H1">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="I1">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="J1">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="K1">
-        <v>59</v>
-      </c>
-      <c t="s" r="L1">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="M1">
-        <v>36</v>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -977,70 +983,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:20" r="1">
-      <c t="s" r="A1">
-        <v>61</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="C1">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="D1">
-        <v>55</v>
-      </c>
-      <c t="s" r="E1">
-        <v>63</v>
-      </c>
-      <c t="s" r="F1">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="G1">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="H1">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="I1">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="J1">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="K1">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="L1">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="M1">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="N1">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="O1">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="P1">
+      <c r="O1" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="Q1">
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="R1">
-        <v>75</v>
-      </c>
-      <c t="s" r="S1">
-        <v>43</v>
-      </c>
-      <c t="s" r="T1">
-        <v>36</v>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,45 +1063,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:12" r="1">
-      <c t="s" r="A1">
-        <v>76</v>
-      </c>
-      <c t="s" r="B1">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="C1">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c t="s" r="D1">
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="E1">
-        <v>79</v>
-      </c>
-      <c t="s" r="F1">
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="G1">
-        <v>80</v>
-      </c>
-      <c t="s" r="H1">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c t="s" r="I1">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="J1">
-        <v>82</v>
-      </c>
-      <c t="s" r="K1">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c t="s" r="L1">
-        <v>36</v>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" header="0.5" left="0.75" right="0.75" top="1" footer="0.5"/>
+  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -1,10 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:workbookPr/>
   <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
   </s:sheets>
   <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
 </s:workbook>
 </file>
 
@@ -286,16 +285,16 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -317,7 +316,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -608,9 +607,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AM1"/>
   <sheetViews>
@@ -740,14 +740,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -784,14 +785,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -825,14 +827,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -869,14 +872,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -907,14 +911,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -966,14 +971,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
@@ -1046,14 +1052,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -1102,6 +1109,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins right="0.75" left="0.75" bottom="1" footer="0.5" top="1" header="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -7,13 +7,20 @@
   </s:bookViews>
   <s:sheets>
     <s:sheet name="grants" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Classification" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Documents" sheetId="3" r:id="rId3"/>
-    <s:sheet name="Event" sheetId="4" r:id="rId4"/>
-    <s:sheet name="GrantProgramme" sheetId="5" r:id="rId5"/>
-    <s:sheet name="Location" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Organization" sheetId="7" r:id="rId7"/>
-    <s:sheet name="Transaction" sheetId="8" r:id="rId8"/>
+    <s:sheet name="actualDates" sheetId="2" r:id="rId2"/>
+    <s:sheet name="applicationTransaction" sheetId="3" r:id="rId3"/>
+    <s:sheet name="beneficiaryLocation" sheetId="4" r:id="rId4"/>
+    <s:sheet name="classifications" sheetId="5" r:id="rId5"/>
+    <s:sheet name="commitmentTransaction" sheetId="6" r:id="rId6"/>
+    <s:sheet name="disbursementTransaction" sheetId="7" r:id="rId7"/>
+    <s:sheet name="fun_location" sheetId="8" r:id="rId8"/>
+    <s:sheet name="fundingOrganization" sheetId="9" r:id="rId9"/>
+    <s:sheet name="fundingType" sheetId="10" r:id="rId10"/>
+    <s:sheet name="grantProgramme" sheetId="11" r:id="rId11"/>
+    <s:sheet name="plannedDates" sheetId="12" r:id="rId12"/>
+    <s:sheet name="rec_location" sheetId="13" r:id="rId13"/>
+    <s:sheet name="recipientOrganization" sheetId="14" r:id="rId14"/>
+    <s:sheet name="relatedDocument" sheetId="15" r:id="rId15"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>Identifier</t>
   </si>
@@ -140,142 +147,199 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>grants/id:fundingType</t>
-  </si>
-  <si>
-    <t>grants/id:classifications</t>
-  </si>
-  <si>
-    <t>Vocabulary</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>grants/id:relatedDocument</t>
-  </si>
-  <si>
-    <t>Web Address</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>grants/id:plannedDates</t>
-  </si>
-  <si>
-    <t>grants/id:actualDates</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Duration (months)</t>
-  </si>
-  <si>
-    <t>grants/id:grantProgramme</t>
-  </si>
-  <si>
-    <t>grants/id:location</t>
-  </si>
-  <si>
-    <t>grants/recipientOrganization[]/id:location</t>
-  </si>
-  <si>
-    <t>grants/id:beneficiaryLocation</t>
-  </si>
-  <si>
-    <t>grants/fundingOrganization[]/id:location</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Geographic Code</t>
-  </si>
-  <si>
-    <t>Geographic Code Type</t>
-  </si>
-  <si>
-    <t>grants/id:recipientOrganization</t>
-  </si>
-  <si>
-    <t>grants/id:fundingOrganization</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Contact Name</t>
-  </si>
-  <si>
-    <t>Charity Number</t>
-  </si>
-  <si>
-    <t>Company Number</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Alternate Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Organisation Type</t>
-  </si>
-  <si>
-    <t>grants/id:applicationTransaction</t>
-  </si>
-  <si>
-    <t>grants/id:commitmentTransaction</t>
-  </si>
-  <si>
-    <t>grants/id:disbursementTransaction</t>
-  </si>
-  <si>
-    <t>Transaction date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Value date</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>Recipient</t>
+    <t>Actual Dates:Title</t>
+  </si>
+  <si>
+    <t>Actual Dates:Start Date</t>
+  </si>
+  <si>
+    <t>Actual Dates:End Date</t>
+  </si>
+  <si>
+    <t>Actual Dates:Duration (months)</t>
+  </si>
+  <si>
+    <t>Actual Dates:Description</t>
+  </si>
+  <si>
+    <t>Actual Dates:Last modified</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Identifier</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Description</t>
+  </si>
+  <si>
+    <t>Beneficiary Location:Last modified</t>
+  </si>
+  <si>
+    <t>Classifications:Vocabulary</t>
+  </si>
+  <si>
+    <t>Classifications:Code</t>
+  </si>
+  <si>
+    <t>Classifications:Title</t>
+  </si>
+  <si>
+    <t>Classifications:Description</t>
+  </si>
+  <si>
+    <t>Classifications:URL</t>
+  </si>
+  <si>
+    <t>Classifications:Last modified</t>
+  </si>
+  <si>
+    <t>fundingOrganization/0/Identifier</t>
+  </si>
+  <si>
+    <t>Location:Identifier</t>
+  </si>
+  <si>
+    <t>Location:Name</t>
+  </si>
+  <si>
+    <t>Location:Country Code</t>
+  </si>
+  <si>
+    <t>Location:Latitude</t>
+  </si>
+  <si>
+    <t>Location:Longitude</t>
+  </si>
+  <si>
+    <t>Location:Description</t>
+  </si>
+  <si>
+    <t>Location:Geographic Code</t>
+  </si>
+  <si>
+    <t>Location:Geographic Code Type</t>
+  </si>
+  <si>
+    <t>Location:Last modified</t>
+  </si>
+  <si>
+    <t>Funding Org:Contact Name</t>
+  </si>
+  <si>
+    <t>Funding Org:Charity Number</t>
+  </si>
+  <si>
+    <t>Funding Org:Company Number</t>
+  </si>
+  <si>
+    <t>Funding Org:Street Address</t>
+  </si>
+  <si>
+    <t>Funding Org:City</t>
+  </si>
+  <si>
+    <t>Funding Org:County</t>
+  </si>
+  <si>
+    <t>Funding Org:Country</t>
+  </si>
+  <si>
+    <t>Funding Org:Postal Code</t>
+  </si>
+  <si>
+    <t>Funding Org:Phone Number</t>
+  </si>
+  <si>
+    <t>Funding Org:Alternate Name</t>
+  </si>
+  <si>
+    <t>Funding Org:Email</t>
+  </si>
+  <si>
+    <t>Funding Org:Description</t>
+  </si>
+  <si>
+    <t>Funding Org:Organisation Type</t>
+  </si>
+  <si>
+    <t>Funding Org:Web Address</t>
+  </si>
+  <si>
+    <t>Funding Org:Last modified</t>
+  </si>
+  <si>
+    <t>Funding Type:Vocabulary</t>
+  </si>
+  <si>
+    <t>Funding Type:Code</t>
+  </si>
+  <si>
+    <t>Funding Type:Title</t>
+  </si>
+  <si>
+    <t>Funding Type:Description</t>
+  </si>
+  <si>
+    <t>Funding Type:URL</t>
+  </si>
+  <si>
+    <t>Funding Type:Last modified</t>
+  </si>
+  <si>
+    <t>Grant Programme:Description</t>
+  </si>
+  <si>
+    <t>Grant Programme:Last modified</t>
+  </si>
+  <si>
+    <t>Planned Dates:Title</t>
+  </si>
+  <si>
+    <t>Planned Dates:Description</t>
+  </si>
+  <si>
+    <t>Planned Dates:Last modified</t>
+  </si>
+  <si>
+    <t>recipientOrganization/0/Identifier</t>
+  </si>
+  <si>
+    <t>Recipient Org:Department</t>
+  </si>
+  <si>
+    <t>Recipient Org:Contact Name</t>
+  </si>
+  <si>
+    <t>Recipient Org:Phone Number</t>
+  </si>
+  <si>
+    <t>Recipient Org:Alternate Name</t>
+  </si>
+  <si>
+    <t>Recipient Org:Email</t>
+  </si>
+  <si>
+    <t>Recipient Org:Organisation Type</t>
+  </si>
+  <si>
+    <t>Recipient Org:Last modified</t>
+  </si>
+  <si>
+    <t>Related Document:Identifier</t>
+  </si>
+  <si>
+    <t>Related Document:Title</t>
+  </si>
+  <si>
+    <t>Related Document:Web Address</t>
+  </si>
+  <si>
+    <t>Related Document:Description</t>
+  </si>
+  <si>
+    <t>Related Document:Document Type</t>
+  </si>
+  <si>
+    <t>Related Document:Last modified</t>
   </si>
 </sst>
 </file>
@@ -744,52 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -805,25 +824,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -831,52 +850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -892,22 +866,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -915,13 +889,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,45 +903,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -975,13 +931,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,66 +945,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +985,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,42 +999,444 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Identifier</t>
   </si>
@@ -195,31 +195,31 @@
     <t>fundingOrganization/0/Identifier</t>
   </si>
   <si>
-    <t>Location:Identifier</t>
-  </si>
-  <si>
-    <t>Location:Name</t>
-  </si>
-  <si>
-    <t>Location:Country Code</t>
-  </si>
-  <si>
-    <t>Location:Latitude</t>
-  </si>
-  <si>
-    <t>Location:Longitude</t>
-  </si>
-  <si>
-    <t>Location:Description</t>
-  </si>
-  <si>
-    <t>Location:Geographic Code</t>
-  </si>
-  <si>
-    <t>Location:Geographic Code Type</t>
-  </si>
-  <si>
-    <t>Location:Last modified</t>
+    <t>Funding Org:Location:Identifier</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Name</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Country Code</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Latitude</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Longitude</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Description</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Geographic Code</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Geographic Code Type</t>
+  </si>
+  <si>
+    <t>Funding Org:Location:Last modified</t>
   </si>
   <si>
     <t>Funding Org:Contact Name</t>
@@ -301,6 +301,33 @@
   </si>
   <si>
     <t>recipientOrganization/0/Identifier</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Identifier</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Name</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Country Code</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Latitude</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Longitude</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Description</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Geographic Code</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Geographic Code Type</t>
+  </si>
+  <si>
+    <t>Recipient Org:Location:Last modified</t>
   </si>
   <si>
     <t>Recipient Org:Department</t>
@@ -953,31 +980,31 @@
         <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -1037,25 +1064,25 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P1" t="s">
         <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1082,22 +1109,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/schema/summary-table/360-giving-schema-titles.xlsx
+++ b/schema/summary-table/360-giving-schema-titles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Identifier</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Classifications:Last modified</t>
   </si>
   <si>
-    <t>fundingOrganization/0/Identifier</t>
-  </si>
-  <si>
     <t>Funding Org:Location:Identifier</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
   </si>
   <si>
     <t>Planned Dates:Last modified</t>
-  </si>
-  <si>
-    <t>recipientOrganization/0/Identifier</t>
   </si>
   <si>
     <t>Recipient Org:Location:Identifier</t>
@@ -854,22 +848,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -902,13 +896,13 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -947,10 +941,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -977,34 +971,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1037,10 +1031,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -1064,25 +1058,25 @@
         <v>20</v>
       </c>
       <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
         <v>102</v>
-      </c>
-      <c r="N1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
       </c>
       <c r="P1" t="s">
         <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R1" t="s">
         <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1109,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1358,34 +1352,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1421,49 +1415,49 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
-      </c>
-      <c r="S1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
